--- a/flows/IRVH_fund_flow_data.xlsx
+++ b/flows/IRVH_fund_flow_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B414"/>
+  <dimension ref="A1:B427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4575,6 +4575,136 @@
         <v>-0.00039554306</v>
       </c>
     </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>6.925964e-05</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>-0.00032904</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>0.0010227849</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>6.1265346e-05</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>-0.0012908789</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>0.0009338046</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>0.00028669246</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>-0.00045146194</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>-0.0003277722</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>-3.607962e-05</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>-0.00050243957</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>0.0011389472</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>-6.0494385e-05</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
